--- a/Stocks/MSFT.xlsx
+++ b/Stocks/MSFT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Financials/Ações/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{70DFFC3E-6C4D-4A2D-964D-CFCD4842EF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9370E125-76DC-4E49-ADD2-370D32B941F5}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="8_{70DFFC3E-6C4D-4A2D-964D-CFCD4842EF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{155A34A2-57A0-4114-850F-EC14AECCEC47}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E13D6040-9EF9-4A6A-9858-A34E1D72137E}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{E13D6040-9EF9-4A6A-9858-A34E1D72137E}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -438,6 +438,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -763,12 +767,12 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -779,7 +783,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
         <v>2</v>
       </c>
@@ -787,7 +791,7 @@
         <v>7433.0383810000003</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
         <v>3</v>
       </c>
@@ -796,7 +800,7 @@
         <v>3233371.6957350001</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K5" t="s">
         <v>4</v>
       </c>
@@ -805,7 +809,7 @@
         <v>90143</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K6" t="s">
         <v>5</v>
       </c>
@@ -814,7 +818,7 @@
         <v>51630</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
         <v>6</v>
       </c>
@@ -833,24 +837,24 @@
   <dimension ref="A2:BJ62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.796875" customWidth="1"/>
-    <col min="9" max="9" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="35" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="35" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>59</v>
       </c>
@@ -963,7 +967,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1053,7 +1057,7 @@
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1149,7 +1153,7 @@
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1257,7 +1261,7 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1356,7 +1360,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1452,7 +1456,7 @@
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1564,7 +1568,7 @@
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
     </row>
-    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1676,7 +1680,7 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1773,7 +1777,7 @@
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1870,7 +1874,7 @@
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1967,7 +1971,7 @@
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2076,7 +2080,7 @@
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
     </row>
-    <row r="14" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -2181,7 +2185,7 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2277,7 +2281,7 @@
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2379,7 +2383,7 @@
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2469,7 +2473,7 @@
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
     </row>
-    <row r="18" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -2698,7 +2702,7 @@
         <v>220527.5869924268</v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2815,7 +2819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2836,7 +2840,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2869,7 +2873,7 @@
         <v>0.15195144957198026</v>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2905,7 +2909,7 @@
         <v>9.7355709377022981E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>18</v>
       </c>
@@ -2917,7 +2921,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.2">
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -2926,7 +2930,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -2979,7 +2983,7 @@
         <v>0.20419608509586418</v>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -3035,7 +3039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -3088,7 +3092,7 @@
         <v>7.3054257264783581E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -3144,7 +3148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -3158,7 +3162,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -3211,7 +3215,7 @@
         <v>0.69589197707293715</v>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -3264,7 +3268,7 @@
         <v>0.12446119857246589</v>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -3317,7 +3321,7 @@
         <v>0.10530381448236439</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -3370,7 +3374,7 @@
         <v>3.4699584408361274E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -3423,7 +3427,7 @@
         <v>0.43142737960974553</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -3479,7 +3483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
@@ -3559,7 +3563,7 @@
         <v>3168045.0414813547</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -3579,9 +3583,17 @@
       <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
+      </c>
+      <c r="E39">
+        <f>22884+84378+6839</f>
+        <v>114101</v>
+      </c>
+      <c r="S39">
+        <f>13931+90826+6891</f>
+        <v>111648</v>
       </c>
       <c r="T39" s="3">
         <f>34704+76558+9879</f>
@@ -3608,9 +3620,15 @@
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>42</v>
+      </c>
+      <c r="E40">
+        <v>31279</v>
+      </c>
+      <c r="S40" s="3">
+        <v>44261</v>
       </c>
       <c r="T40" s="3">
         <v>48688</v>
@@ -3621,7 +3639,6 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
@@ -3635,9 +3652,15 @@
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>43</v>
+      </c>
+      <c r="E41">
+        <v>4268</v>
+      </c>
+      <c r="S41">
+        <v>3742</v>
       </c>
       <c r="T41" s="3">
         <v>2500</v>
@@ -3662,9 +3685,16 @@
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>47</v>
+      </c>
+      <c r="E42">
+        <f>18003+23482</f>
+        <v>41485</v>
+      </c>
+      <c r="S42">
+        <v>16924</v>
       </c>
       <c r="T42" s="3">
         <f>21807+30601</f>
@@ -3691,9 +3721,15 @@
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
+      </c>
+      <c r="E43">
+        <v>160812</v>
+      </c>
+      <c r="S43">
+        <v>74398</v>
       </c>
       <c r="T43" s="3">
         <v>95641</v>
@@ -3718,9 +3754,15 @@
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
+      </c>
+      <c r="E44">
+        <v>13347</v>
+      </c>
+      <c r="S44">
+        <v>6891</v>
       </c>
       <c r="T44" s="3">
         <v>14346</v>
@@ -3745,9 +3787,17 @@
       <c r="AJ44" s="3"/>
       <c r="AK44" s="3"/>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
+      </c>
+      <c r="E45">
+        <f>67459+10808</f>
+        <v>78267</v>
+      </c>
+      <c r="S45">
+        <f>11298+67524</f>
+        <v>78822</v>
       </c>
       <c r="T45" s="3">
         <f>67886+9366</f>
@@ -3774,9 +3824,13 @@
       <c r="AJ45" s="3"/>
       <c r="AK45" s="3"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>48</v>
+      </c>
+      <c r="E46">
+        <f>+SUM(E39:E45)</f>
+        <v>443559</v>
       </c>
       <c r="T46" s="3">
         <f>SUM(T39:T45)</f>
@@ -3803,7 +3857,7 @@
       <c r="AJ46" s="3"/>
       <c r="AK46" s="3"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
@@ -3823,7 +3877,7 @@
       <c r="AJ47" s="3"/>
       <c r="AK47" s="3"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -3852,7 +3906,7 @@
       <c r="AJ48" s="3"/>
       <c r="AK48" s="3"/>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -3879,7 +3933,7 @@
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -3906,7 +3960,7 @@
       <c r="AJ50" s="3"/>
       <c r="AK50" s="3"/>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -3935,7 +3989,7 @@
       <c r="AJ51" s="3"/>
       <c r="AK51" s="3"/>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3964,7 +4018,7 @@
       <c r="AJ52" s="3"/>
       <c r="AK52" s="3"/>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -3993,7 +4047,7 @@
       <c r="AJ53" s="3"/>
       <c r="AK53" s="3"/>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -4020,7 +4074,7 @@
       <c r="AJ54" s="3"/>
       <c r="AK54" s="3"/>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -4047,7 +4101,7 @@
       <c r="AJ55" s="3"/>
       <c r="AK55" s="3"/>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
       <c r="T56" s="3">
         <f>SUM(T48:T55)</f>
         <v>205753</v>
@@ -4073,12 +4127,12 @@
       <c r="AJ56" s="3"/>
       <c r="AK56" s="3"/>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
       <c r="T57" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -4091,7 +4145,7 @@
         <v>268477</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -4104,7 +4158,7 @@
         <v>512163</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -4117,7 +4171,7 @@
         <v>0.17208583985957596</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>58</v>
       </c>
